--- a/oldnotes/web1/others/list_and_string_map.xlsx
+++ b/oldnotes/web1/others/list_and_string_map.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -98,11 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实例.slice()
-切片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实例.push()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,11 +115,6 @@
   </si>
   <si>
     <t>实例.sort()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例.splice()
-替换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,11 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实例.replace()
-替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实例.toLowerCase()
 转小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,14 +165,38 @@
   <si>
     <t>实例.search()
 返回第一个匹配元素的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实例.splice()
+替换
+array.splice(start, deleteCount, item...)
+从数组中删除一个或多个元素，并用新的item代替被删除的元素。参数deleteCount是要被删除的个数（从start开始）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实例.replace()
+替换
+varstr13d=str13.replace('at', 'ond'); 
+使用字符串'at'只能替换第一个匹配的位置
+varstr13e=str13.replace(/at/g, 'xxx');
+ 将第一个参数修改为带有全局标志的正则表达式，就将全部"at"都替换成了"ond"。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例.slice()
+切片
+实例.slice(start, end) 从start的位置，截取到end位置之前一位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -344,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -521,26 +530,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="31.25" style="5" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,154 +557,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:3" ht="28.5" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:3" ht="29.25" customHeight="1">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="2:3" ht="28.5" customHeight="1">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="2:3" ht="51.75" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" ht="142.5">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28.5">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28.5">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="28.5">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28.5">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="28.5">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="13" spans="2:3" ht="28.5">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="28.5">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="15" spans="2:3" ht="28.5">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="16" spans="2:3" ht="28.5">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:3" ht="28.5">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:3" ht="28.5">
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
